--- a/wsop_payout_structure.xlsx
+++ b/wsop_payout_structure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://husteduvn-my.sharepoint.com/personal/minh_htn204883_sis_hust_edu_vn/Documents/PARA/2 Areas/Poker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhatm\OneDrive - Hanoi University of Science and Technology\Documents\GitHub\payouttest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{29E69926-87B0-4978-A1D5-8C4BA9B3EA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B1E3F4D-88DE-479F-BB90-5B92C77F690C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EEF837-C64D-47F9-9C48-E2260FBA796B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A92A8C26-2D5D-40CC-9753-3326DA1FC057}"/>
   </bookViews>
@@ -1272,10 +1272,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9FB464E6-D21E-4E26-B917-7627B0ABECBE}" name="Table2" displayName="Table2" ref="A1:AF34" totalsRowShown="0" headerRowDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9FB464E6-D21E-4E26-B917-7627B0ABECBE}" name="Table2" displayName="Table2" ref="A1:AF34" totalsRowShown="0" headerRowDxfId="95">
   <autoFilter ref="A1:AF34" xr:uid="{9FB464E6-D21E-4E26-B917-7627B0ABECBE}"/>
   <tableColumns count="32">
-    <tableColumn id="1" xr3:uid="{8743ABDE-101B-434B-BACA-F2E1B63DD866}" name="Ranking/Entrants" dataDxfId="95"/>
+    <tableColumn id="1" xr3:uid="{8743ABDE-101B-434B-BACA-F2E1B63DD866}" name="Ranking/Entrants" dataDxfId="94"/>
     <tableColumn id="2" xr3:uid="{50DBCF08-D6F0-4028-B622-9A9B6478C32E}" name="5001+" dataDxfId="93"/>
     <tableColumn id="3" xr3:uid="{E2D66F32-EC0E-4457-8ABF-307B140953FF}" name="4501- 5000" dataDxfId="92"/>
     <tableColumn id="4" xr3:uid="{BF7D79F7-39E1-4000-A24E-20CFF08E6DB9}" name="4001- 4500" dataDxfId="91"/>
@@ -1313,79 +1313,79 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{91ED5409-05D2-4616-815A-D0EC23423FF9}" name="Table3" displayName="Table3" ref="A1:AF34" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{91ED5409-05D2-4616-815A-D0EC23423FF9}" name="Table3" displayName="Table3" ref="A1:AF34" totalsRowShown="0" headerRowDxfId="62">
   <autoFilter ref="A1:AF34" xr:uid="{91ED5409-05D2-4616-815A-D0EC23423FF9}"/>
   <tableColumns count="32">
-    <tableColumn id="1" xr3:uid="{B7BC2C66-E4BF-481E-B016-FE8042AB4771}" name="Ranking/Entrants" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{F71A627E-5308-4D4A-B3DA-EFE34C763BD5}" name="3001+" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{CE2299DD-BBE4-486C-ABCC-49E090EC6F2D}" name="2751- 3000" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{29572275-6A35-49C8-9C92-FB252ABD3491}" name="2501- 2750" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{721E245C-324F-4E2A-A33A-43AA3C4B16BE}" name="2251- 2500" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{2C032CDB-D154-4488-995B-AC469F1537BB}" name="2001- 2250" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{C2DA269B-D15E-4BA8-A151-93F1F7B143C9}" name="1751- 2000" dataDxfId="56"/>
-    <tableColumn id="8" xr3:uid="{A8E63AC1-EDAD-4C97-9B8F-7D8D813602DC}" name="1501- 1750" dataDxfId="55"/>
-    <tableColumn id="9" xr3:uid="{814C65AA-40B8-4ECA-938B-60D4B8450B4D}" name="1251- 1500" dataDxfId="54"/>
-    <tableColumn id="10" xr3:uid="{884A031D-86D7-440E-8D4A-52CBF7E1FC65}" name="1001- 1250" dataDxfId="53"/>
-    <tableColumn id="11" xr3:uid="{C279F49C-56C6-496D-BAA5-07F5458FA8E6}" name="901- 1000" dataDxfId="52"/>
-    <tableColumn id="12" xr3:uid="{7A2D6655-83B0-4D44-8E38-736C8619EE9A}" name="801- 900" dataDxfId="51"/>
-    <tableColumn id="13" xr3:uid="{5C1CB0A6-10DB-46AF-9BC5-EDE92C8E5586}" name="701- 800" dataDxfId="50"/>
-    <tableColumn id="14" xr3:uid="{B15CA463-83A0-4927-9C3D-6E6CF63BBE99}" name="601- 700" dataDxfId="49"/>
-    <tableColumn id="15" xr3:uid="{ECCE1106-B103-44CD-BBCA-8F0955C31A67}" name="501- 600" dataDxfId="48"/>
-    <tableColumn id="16" xr3:uid="{BE77FAAE-3188-4262-9233-87C91799A7D5}" name="401- 500" dataDxfId="47"/>
-    <tableColumn id="17" xr3:uid="{51300D7C-948A-42B9-9FEA-3240D36E443D}" name="351- 400" dataDxfId="46"/>
-    <tableColumn id="18" xr3:uid="{5797A1E1-C0FC-4F76-90B9-4F086AEEA7C9}" name="301- 350" dataDxfId="45"/>
-    <tableColumn id="19" xr3:uid="{C74E513C-B987-4681-A1E8-EAB866224A60}" name="251- 300" dataDxfId="44"/>
-    <tableColumn id="20" xr3:uid="{6F3994DE-A5A8-4969-B96B-1769F41A7DC9}" name="201- 250" dataDxfId="43"/>
-    <tableColumn id="21" xr3:uid="{AD452900-CD71-4584-9A84-AD20AD512898}" name="151- 200" dataDxfId="42"/>
-    <tableColumn id="22" xr3:uid="{B8968969-07E2-4AFF-B539-A090B41B6A19}" name="126- 150" dataDxfId="41"/>
-    <tableColumn id="23" xr3:uid="{1A5FD74B-DFE7-4FB1-97CB-67639C6A3DD7}" name="101- 125" dataDxfId="40"/>
-    <tableColumn id="24" xr3:uid="{10F5D49C-27E4-4378-A31D-88B53882E585}" name="76- 100" dataDxfId="39"/>
-    <tableColumn id="25" xr3:uid="{745B52D6-E052-4163-88DC-AAEEB622CA2C}" name="61- 75" dataDxfId="38"/>
-    <tableColumn id="26" xr3:uid="{DC07D255-B020-4C81-A140-BCED9E2646AD}" name="51- 60" dataDxfId="37"/>
-    <tableColumn id="27" xr3:uid="{6B147C2F-743D-4D62-96D9-E5B61CC2CB93}" name="41- 50" dataDxfId="36"/>
-    <tableColumn id="28" xr3:uid="{3D8356DA-0712-48C6-B03E-7BD70FCAC425}" name="31- 40" dataDxfId="35"/>
-    <tableColumn id="29" xr3:uid="{C0AFBA8B-1E9E-4B57-91E2-B288622717D8}" name="21- 30" dataDxfId="34"/>
-    <tableColumn id="30" xr3:uid="{B521681D-A7AA-4EB0-8469-FCC38C598903}" name="11- 20" dataDxfId="33"/>
-    <tableColumn id="31" xr3:uid="{918E9AD0-5C94-4F2A-9EFB-9F167FCA1E6D}" name="3- 10" dataDxfId="32"/>
-    <tableColumn id="32" xr3:uid="{4C3EA05D-AA26-4981-883C-6C01958209B5}" name="2" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{B7BC2C66-E4BF-481E-B016-FE8042AB4771}" name="Ranking/Entrants" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{F71A627E-5308-4D4A-B3DA-EFE34C763BD5}" name="3001+" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{CE2299DD-BBE4-486C-ABCC-49E090EC6F2D}" name="2751- 3000" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{29572275-6A35-49C8-9C92-FB252ABD3491}" name="2501- 2750" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{721E245C-324F-4E2A-A33A-43AA3C4B16BE}" name="2251- 2500" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{2C032CDB-D154-4488-995B-AC469F1537BB}" name="2001- 2250" dataDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{C2DA269B-D15E-4BA8-A151-93F1F7B143C9}" name="1751- 2000" dataDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{A8E63AC1-EDAD-4C97-9B8F-7D8D813602DC}" name="1501- 1750" dataDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{814C65AA-40B8-4ECA-938B-60D4B8450B4D}" name="1251- 1500" dataDxfId="53"/>
+    <tableColumn id="10" xr3:uid="{884A031D-86D7-440E-8D4A-52CBF7E1FC65}" name="1001- 1250" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{C279F49C-56C6-496D-BAA5-07F5458FA8E6}" name="901- 1000" dataDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{7A2D6655-83B0-4D44-8E38-736C8619EE9A}" name="801- 900" dataDxfId="50"/>
+    <tableColumn id="13" xr3:uid="{5C1CB0A6-10DB-46AF-9BC5-EDE92C8E5586}" name="701- 800" dataDxfId="49"/>
+    <tableColumn id="14" xr3:uid="{B15CA463-83A0-4927-9C3D-6E6CF63BBE99}" name="601- 700" dataDxfId="48"/>
+    <tableColumn id="15" xr3:uid="{ECCE1106-B103-44CD-BBCA-8F0955C31A67}" name="501- 600" dataDxfId="47"/>
+    <tableColumn id="16" xr3:uid="{BE77FAAE-3188-4262-9233-87C91799A7D5}" name="401- 500" dataDxfId="46"/>
+    <tableColumn id="17" xr3:uid="{51300D7C-948A-42B9-9FEA-3240D36E443D}" name="351- 400" dataDxfId="45"/>
+    <tableColumn id="18" xr3:uid="{5797A1E1-C0FC-4F76-90B9-4F086AEEA7C9}" name="301- 350" dataDxfId="44"/>
+    <tableColumn id="19" xr3:uid="{C74E513C-B987-4681-A1E8-EAB866224A60}" name="251- 300" dataDxfId="43"/>
+    <tableColumn id="20" xr3:uid="{6F3994DE-A5A8-4969-B96B-1769F41A7DC9}" name="201- 250" dataDxfId="42"/>
+    <tableColumn id="21" xr3:uid="{AD452900-CD71-4584-9A84-AD20AD512898}" name="151- 200" dataDxfId="41"/>
+    <tableColumn id="22" xr3:uid="{B8968969-07E2-4AFF-B539-A090B41B6A19}" name="126- 150" dataDxfId="40"/>
+    <tableColumn id="23" xr3:uid="{1A5FD74B-DFE7-4FB1-97CB-67639C6A3DD7}" name="101- 125" dataDxfId="39"/>
+    <tableColumn id="24" xr3:uid="{10F5D49C-27E4-4378-A31D-88B53882E585}" name="76- 100" dataDxfId="38"/>
+    <tableColumn id="25" xr3:uid="{745B52D6-E052-4163-88DC-AAEEB622CA2C}" name="61- 75" dataDxfId="37"/>
+    <tableColumn id="26" xr3:uid="{DC07D255-B020-4C81-A140-BCED9E2646AD}" name="51- 60" dataDxfId="36"/>
+    <tableColumn id="27" xr3:uid="{6B147C2F-743D-4D62-96D9-E5B61CC2CB93}" name="41- 50" dataDxfId="35"/>
+    <tableColumn id="28" xr3:uid="{3D8356DA-0712-48C6-B03E-7BD70FCAC425}" name="31- 40" dataDxfId="34"/>
+    <tableColumn id="29" xr3:uid="{C0AFBA8B-1E9E-4B57-91E2-B288622717D8}" name="21- 30" dataDxfId="33"/>
+    <tableColumn id="30" xr3:uid="{B521681D-A7AA-4EB0-8469-FCC38C598903}" name="11- 20" dataDxfId="32"/>
+    <tableColumn id="31" xr3:uid="{918E9AD0-5C94-4F2A-9EFB-9F167FCA1E6D}" name="3- 10" dataDxfId="31"/>
+    <tableColumn id="32" xr3:uid="{4C3EA05D-AA26-4981-883C-6C01958209B5}" name="2" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A258A83E-3A7C-4071-923A-662F9E54D92D}" name="Table4" displayName="Table4" ref="A1:AC37" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A258A83E-3A7C-4071-923A-662F9E54D92D}" name="Table4" displayName="Table4" ref="A1:AC37" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="A1:AC37" xr:uid="{A258A83E-3A7C-4071-923A-662F9E54D92D}"/>
   <tableColumns count="29">
-    <tableColumn id="1" xr3:uid="{C32696C1-13A3-4B44-9124-B9DE847CF08D}" name="Ranking/Entrants" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{F436CDDA-EBBF-4E77-AADB-B4F9023A8519}" name="3001+" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{D8A1C725-01AF-434B-B498-3D8FE7E73B0F}" name="2751- 3000" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{014C731C-0C39-4D5D-86C3-6D5F95BF7DE6}" name="2501- 2750" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{63C3700B-0978-4354-9576-399329923F92}" name="2251- 2500" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{AE28D79B-57C5-4AB6-B239-7CB4E9E1F8E1}" name="2001- 2250" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{0B097602-783F-4EC3-9E54-D41F3A628225}" name="1751- 2000" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{7E859D7C-EAF5-41E7-B1AB-22154D5C3176}" name="1501- 1750" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{71A80A87-17F7-46E5-8E17-D57E21E7F604}" name="1251- 1500" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{5E82C53F-847D-4F4D-88CE-2319553512C7}" name="1001- 1250" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{D7B5F53B-6E5A-4301-B68A-0E540EBD5283}" name="901- 1000" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{D0CBDE70-A4C9-4B67-8017-D07E5453A02E}" name="801- 900" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{50A36BD4-A97B-4BBC-AA16-E16F87B634E6}" name="601- 800" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{B27BBFD7-491A-4FE4-9185-42B60D78A017}" name="501- 600" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{4A0B29AB-F233-4191-92E6-CD6AE7C65F8C}" name="401- 500" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{E933856C-C8AB-45B5-B7F8-FCCAF429F368}" name="301- 400" dataDxfId="14"/>
-    <tableColumn id="17" xr3:uid="{D9AA97C3-2892-421E-A37B-6A33A8203291}" name="251- 300" dataDxfId="13"/>
-    <tableColumn id="18" xr3:uid="{5A4B46A1-22B3-429C-8430-BB4E6F6366A1}" name="201- 250" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{D6AE29C2-F961-4B9B-82C5-8A019E23DB8D}" name="151- 200" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{2808E388-93E0-47E5-95FA-DBB838CC5321}" name="126- 150" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{D1F895CB-B0A7-4A3D-A3A6-E8C6EFF213DE}" name="101- 125" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{7D0DB61D-1D3B-46B4-8BBB-AF789049E3F1}" name="76- 100" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{9B38F4C4-F239-440D-8874-010269216E63}" name="51- 75" dataDxfId="7"/>
-    <tableColumn id="24" xr3:uid="{25F2EA9F-D538-4E31-A191-13E9A3E0708E}" name="41- 50" dataDxfId="6"/>
-    <tableColumn id="25" xr3:uid="{78144C5C-F56B-4EEB-9F2F-E450A67E08B3}" name="31- 40" dataDxfId="5"/>
-    <tableColumn id="26" xr3:uid="{C15CDF06-231B-41DC-92F1-5F36BC711BBE}" name="21- 30" dataDxfId="4"/>
-    <tableColumn id="27" xr3:uid="{442E8D92-1640-4036-A9C0-B175D1E7332D}" name="11- 20" dataDxfId="3"/>
-    <tableColumn id="28" xr3:uid="{6338EA29-911D-45CE-80AF-A66D33E6C3A0}" name="3- 10" dataDxfId="2"/>
-    <tableColumn id="29" xr3:uid="{92E98B48-C61E-45E5-8F16-EB22C60932CC}" name="2" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{C32696C1-13A3-4B44-9124-B9DE847CF08D}" name="Ranking/Entrants" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{F436CDDA-EBBF-4E77-AADB-B4F9023A8519}" name="3001+" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{D8A1C725-01AF-434B-B498-3D8FE7E73B0F}" name="2751- 3000" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{014C731C-0C39-4D5D-86C3-6D5F95BF7DE6}" name="2501- 2750" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{63C3700B-0978-4354-9576-399329923F92}" name="2251- 2500" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{AE28D79B-57C5-4AB6-B239-7CB4E9E1F8E1}" name="2001- 2250" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{0B097602-783F-4EC3-9E54-D41F3A628225}" name="1751- 2000" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{7E859D7C-EAF5-41E7-B1AB-22154D5C3176}" name="1501- 1750" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{71A80A87-17F7-46E5-8E17-D57E21E7F604}" name="1251- 1500" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{5E82C53F-847D-4F4D-88CE-2319553512C7}" name="1001- 1250" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{D7B5F53B-6E5A-4301-B68A-0E540EBD5283}" name="901- 1000" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{D0CBDE70-A4C9-4B67-8017-D07E5453A02E}" name="801- 900" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{50A36BD4-A97B-4BBC-AA16-E16F87B634E6}" name="601- 800" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{B27BBFD7-491A-4FE4-9185-42B60D78A017}" name="501- 600" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{4A0B29AB-F233-4191-92E6-CD6AE7C65F8C}" name="401- 500" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{E933856C-C8AB-45B5-B7F8-FCCAF429F368}" name="301- 400" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{D9AA97C3-2892-421E-A37B-6A33A8203291}" name="251- 300" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{5A4B46A1-22B3-429C-8430-BB4E6F6366A1}" name="201- 250" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{D6AE29C2-F961-4B9B-82C5-8A019E23DB8D}" name="151- 200" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{2808E388-93E0-47E5-95FA-DBB838CC5321}" name="126- 150" dataDxfId="9"/>
+    <tableColumn id="21" xr3:uid="{D1F895CB-B0A7-4A3D-A3A6-E8C6EFF213DE}" name="101- 125" dataDxfId="8"/>
+    <tableColumn id="22" xr3:uid="{7D0DB61D-1D3B-46B4-8BBB-AF789049E3F1}" name="76- 100" dataDxfId="7"/>
+    <tableColumn id="23" xr3:uid="{9B38F4C4-F239-440D-8874-010269216E63}" name="51- 75" dataDxfId="6"/>
+    <tableColumn id="24" xr3:uid="{25F2EA9F-D538-4E31-A191-13E9A3E0708E}" name="41- 50" dataDxfId="5"/>
+    <tableColumn id="25" xr3:uid="{78144C5C-F56B-4EEB-9F2F-E450A67E08B3}" name="31- 40" dataDxfId="4"/>
+    <tableColumn id="26" xr3:uid="{C15CDF06-231B-41DC-92F1-5F36BC711BBE}" name="21- 30" dataDxfId="3"/>
+    <tableColumn id="27" xr3:uid="{442E8D92-1640-4036-A9C0-B175D1E7332D}" name="11- 20" dataDxfId="2"/>
+    <tableColumn id="28" xr3:uid="{6338EA29-911D-45CE-80AF-A66D33E6C3A0}" name="3- 10" dataDxfId="1"/>
+    <tableColumn id="29" xr3:uid="{92E98B48-C61E-45E5-8F16-EB22C60932CC}" name="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1710,9 +1710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C990D446-2B0B-44DC-8C5A-A0BF39F84F03}">
   <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4113,9 +4111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CBDAD10-379F-436E-9462-751012BCEB0D}">
   <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6053,9 +6049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46D6A3D-1634-46CF-9EBC-35A72AA5241D}">
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
